--- a/平成31年度/シースリーカップ/6.大会当日使用/c3cup 懇親会関係.xlsx
+++ b/平成31年度/シースリーカップ/6.大会当日使用/c3cup 懇親会関係.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>懇親会費☑</t>
     <rPh sb="0" eb="2">
@@ -135,10 +135,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>遠藤　大樹</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>栃尾ウィザーズ</t>
     <rPh sb="0" eb="2">
       <t>トチオ</t>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>諸橋　裕哉</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>波形　茜</t>
     <rPh sb="0" eb="2">
       <t>ナミカタ</t>
@@ -234,10 +226,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>渡辺　隆子</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>羽田　邦彦</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -261,6 +249,15 @@
       <t>ダイヒョウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コーチ</t>
+  </si>
+  <si>
+    <t>諸橋　裕哉</t>
+  </si>
+  <si>
+    <t>渡辺　隆子</t>
   </si>
 </sst>
 </file>
@@ -963,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7" s="18"/>
     </row>
@@ -1020,7 +1017,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="19"/>
@@ -1033,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="19"/>
@@ -1046,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="19"/>
@@ -1070,10 +1067,14 @@
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -1082,13 +1083,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="18"/>
     </row>
@@ -1097,10 +1098,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>23</v>
@@ -1112,13 +1113,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -1127,13 +1128,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="18"/>
     </row>
@@ -1142,13 +1143,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="18"/>
     </row>
@@ -1157,13 +1158,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="18"/>
     </row>
@@ -1172,13 +1173,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="18"/>
     </row>
@@ -1187,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E23" s="18"/>
     </row>
@@ -1202,13 +1203,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="E24" s="18"/>
     </row>
@@ -1216,15 +1217,9 @@
       <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
